--- a/packages/meditrak-server/src/tests/testData/surveyResponses/importResponsesFromSingleSurvey.xlsx
+++ b/packages/meditrak-server/src/tests/testData/surveyResponses/importResponsesFromSingleSurvey.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\Projects\tupaia\packages\meditrak-server\src\tests\testData\importSurveyResponses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\Projects\tupaia\packages\meditrak-server\src\tests\testData\surveyResponses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E7E2E8D-E738-4AB9-87F2-D263F2BFD177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03A29EB-6369-49A6-AB66-B76E3CC741F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{374AE92A-F87C-41BB-B830-F4B1DDD546AE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Basic Clinic Data..." sheetId="1" r:id="rId1"/>
+    <sheet name="Test Import Survey Response 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -484,7 +484,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/packages/meditrak-server/src/tests/testData/surveyResponses/importResponsesFromSingleSurvey.xlsx
+++ b/packages/meditrak-server/src/tests/testData/surveyResponses/importResponsesFromSingleSurvey.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\Projects\tupaia\packages\meditrak-server\src\tests\testData\surveyResponses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03A29EB-6369-49A6-AB66-B76E3CC741F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2A335C9-A8C5-4449-87CC-C5337B09DBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{374AE92A-F87C-41BB-B830-F4B1DDD546AE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Import Survey Response 1" sheetId="1" r:id="rId1"/>
+    <sheet name="TEST_IMPORT_SURVEY_RESP_1_test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -135,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,9 +489,9 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -541,7 +543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -567,7 +569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -593,7 +595,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -619,7 +621,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>29</v>
       </c>
